--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/118.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/118.xlsx
@@ -479,13 +479,13 @@
         <v>0.09442053674115775</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.34299069933217</v>
+        <v>-1.275279509068188</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1423264438858858</v>
+        <v>0.1232319349529818</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1013910755610786</v>
+        <v>0.08576856098835547</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1160163912195953</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.313560509963723</v>
+        <v>-1.26210695519201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04773722831636569</v>
+        <v>0.03246950542973343</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1332055234619791</v>
+        <v>0.1138292252475298</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1248351014998006</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.323011401256175</v>
+        <v>-1.268520946455372</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0314324193650676</v>
+        <v>-0.02320504837279708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1139547893833479</v>
+        <v>0.08048172685117508</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1073309431917546</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.36126028109371</v>
+        <v>-1.330451806327446</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03878668159897471</v>
+        <v>-0.03231720850815827</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1222084412412548</v>
+        <v>0.1045798205916232</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.06527412086612969</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.391763605808975</v>
+        <v>-1.380214625409887</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0229232590912517</v>
+        <v>-0.009849988485255213</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1229224047577091</v>
+        <v>0.1047287454968958</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.008815665986773505</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.257513643898011</v>
+        <v>-1.197771396114209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08477572828653757</v>
+        <v>0.1437368503417036</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06454384189081572</v>
+        <v>0.03898131991518622</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.03989672601171285</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9552179869158195</v>
+        <v>-0.8891084694075646</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1977250485992345</v>
+        <v>0.2393948211137688</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02047667041100937</v>
+        <v>0.0004068493533783961</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05262956292856215</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5510927358812917</v>
+        <v>-0.5117050185328478</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2716064020953965</v>
+        <v>0.3251361452523821</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04394649155224606</v>
+        <v>-0.07607484979269198</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.001991049395590319</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09237920682386942</v>
+        <v>-0.0973623509581408</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2674029236416703</v>
+        <v>0.33636391507147</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03334070221988527</v>
+        <v>-0.06157949234615041</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1478748995017968</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5994529006684902</v>
+        <v>0.5764279422748601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09419157842480776</v>
+        <v>0.188490244424237</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08265674658650839</v>
+        <v>-0.1228168293750431</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3894898186144317</v>
       </c>
       <c r="E12" t="n">
-        <v>1.386268436714915</v>
+        <v>1.361197950945922</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2404748047809206</v>
+        <v>-0.150099288001763</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01400719732019293</v>
+        <v>-0.01679105710943517</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.7132059658786212</v>
       </c>
       <c r="E13" t="n">
-        <v>2.090267124948817</v>
+        <v>2.01166981611902</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6959017655857074</v>
+        <v>-0.6085689890280035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1369228059014327</v>
+        <v>0.1138963874597116</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.083089916746074</v>
       </c>
       <c r="E14" t="n">
-        <v>2.82002398160253</v>
+        <v>2.716170760896194</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.261429492877828</v>
+        <v>-1.222491470341384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2453532773727672</v>
+        <v>0.1858271167064195</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.472541231832847</v>
       </c>
       <c r="E15" t="n">
-        <v>3.518605891419161</v>
+        <v>3.399908361772556</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.843450653428899</v>
+        <v>-1.803505927733773</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4106424016483591</v>
+        <v>0.3609482048261907</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.862806476790791</v>
       </c>
       <c r="E16" t="n">
-        <v>4.120390992952817</v>
+        <v>3.997533786295214</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.511541648939038</v>
+        <v>-2.471801329976639</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6107244719303054</v>
+        <v>0.5819600644913131</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.233259885690159</v>
       </c>
       <c r="E17" t="n">
-        <v>4.709393373450569</v>
+        <v>4.581764729631876</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.157588108348592</v>
+        <v>-3.084917134719793</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8263151730338839</v>
+        <v>0.7781773874766241</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.560619764760729</v>
       </c>
       <c r="E18" t="n">
-        <v>5.283167452360142</v>
+        <v>5.141783695476998</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.85158692720786</v>
+        <v>-3.762231254020202</v>
       </c>
       <c r="G18" t="n">
-        <v>1.075879733164817</v>
+        <v>1.044142667812735</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.822082304681811</v>
       </c>
       <c r="E19" t="n">
-        <v>5.807961297964001</v>
+        <v>5.653657575524406</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.466059116627468</v>
+        <v>-4.373101504799538</v>
       </c>
       <c r="G19" t="n">
-        <v>1.308453713661845</v>
+        <v>1.276090287678763</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.01070125227026</v>
       </c>
       <c r="E20" t="n">
-        <v>6.186109373365081</v>
+        <v>6.003718705800676</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.015254745974683</v>
+        <v>-4.875991708943585</v>
       </c>
       <c r="G20" t="n">
-        <v>1.514853412033154</v>
+        <v>1.490384466077615</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.12568015708495</v>
       </c>
       <c r="E21" t="n">
-        <v>6.525488791808263</v>
+        <v>6.390952660471481</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.432449617494981</v>
+        <v>-5.25610792917121</v>
       </c>
       <c r="G21" t="n">
-        <v>1.738645203263366</v>
+        <v>1.698863272930377</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.171646234223445</v>
       </c>
       <c r="E22" t="n">
-        <v>6.848233882351721</v>
+        <v>6.735493348916024</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.632756535182927</v>
+        <v>-5.445521428052887</v>
       </c>
       <c r="G22" t="n">
-        <v>1.821362767805708</v>
+        <v>1.772262810556539</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.154315471926657</v>
       </c>
       <c r="E23" t="n">
-        <v>7.016673790407494</v>
+        <v>6.865147079436808</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.832695520751964</v>
+        <v>-5.687521479024822</v>
       </c>
       <c r="G23" t="n">
-        <v>1.952523267956309</v>
+        <v>1.916062947030137</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.082847430350731</v>
       </c>
       <c r="E24" t="n">
-        <v>7.197689092670264</v>
+        <v>7.064468464663391</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.788807205163295</v>
+        <v>-5.640134158186289</v>
       </c>
       <c r="G24" t="n">
-        <v>2.021960235063744</v>
+        <v>1.981064288037392</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.970600015107884</v>
       </c>
       <c r="E25" t="n">
-        <v>7.232112646509618</v>
+        <v>7.091720262280202</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.736881324834172</v>
+        <v>-5.600306236338436</v>
       </c>
       <c r="G25" t="n">
-        <v>2.00236638968375</v>
+        <v>1.965548356975305</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.829318934349423</v>
       </c>
       <c r="E26" t="n">
-        <v>7.212917394258442</v>
+        <v>7.074627479279934</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.596135608966756</v>
+        <v>-5.480077846268514</v>
       </c>
       <c r="G26" t="n">
-        <v>1.93804835118304</v>
+        <v>1.896292435831142</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.670268665136719</v>
       </c>
       <c r="E27" t="n">
-        <v>7.076199951073842</v>
+        <v>6.957197271376238</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.500233810163508</v>
+        <v>-5.406748390950715</v>
       </c>
       <c r="G27" t="n">
-        <v>1.907480784351775</v>
+        <v>1.875532012026511</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.503815210829001</v>
       </c>
       <c r="E28" t="n">
-        <v>7.024728875725038</v>
+        <v>6.905377244533706</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.30778852142106</v>
+        <v>-5.224297861414582</v>
       </c>
       <c r="G28" t="n">
-        <v>1.851769729346972</v>
+        <v>1.818213444073618</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.337495092325313</v>
       </c>
       <c r="E29" t="n">
-        <v>6.840516068143178</v>
+        <v>6.728004762257754</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.175150452602459</v>
+        <v>-5.113318145976521</v>
       </c>
       <c r="G29" t="n">
-        <v>1.786285112421626</v>
+        <v>1.781652379829173</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.177911117188025</v>
       </c>
       <c r="E30" t="n">
-        <v>6.74893455164093</v>
+        <v>6.64263137023805</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.098200808043252</v>
+        <v>-5.061549220817171</v>
       </c>
       <c r="G30" t="n">
-        <v>1.742457388828729</v>
+        <v>1.748223118739727</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.028460823367067</v>
       </c>
       <c r="E31" t="n">
-        <v>6.502520775290177</v>
+        <v>6.436092967298105</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.903240586464214</v>
+        <v>-4.890062922419718</v>
       </c>
       <c r="G31" t="n">
-        <v>1.626636153921214</v>
+        <v>1.622365513255307</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.890496833522766</v>
       </c>
       <c r="E32" t="n">
-        <v>6.243055629054793</v>
+        <v>6.17410485796163</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.711368366597448</v>
+        <v>-4.690231250385362</v>
       </c>
       <c r="G32" t="n">
-        <v>1.49246649465525</v>
+        <v>1.504641835685338</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.765577336653278</v>
       </c>
       <c r="E33" t="n">
-        <v>5.995752683416677</v>
+        <v>5.938320231712693</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.506145466987411</v>
+        <v>-4.493702937156687</v>
       </c>
       <c r="G33" t="n">
-        <v>1.47138486027062</v>
+        <v>1.489880749486251</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.650060638083699</v>
       </c>
       <c r="E34" t="n">
-        <v>5.660459939579949</v>
+        <v>5.590370330975877</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.383399954008762</v>
+        <v>-4.357560752919906</v>
       </c>
       <c r="G34" t="n">
-        <v>1.385988107481461</v>
+        <v>1.413880866210181</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.543299124655501</v>
       </c>
       <c r="E35" t="n">
-        <v>5.343398816254398</v>
+        <v>5.310868944788952</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.269089138851293</v>
+        <v>-4.245715228963936</v>
       </c>
       <c r="G35" t="n">
-        <v>1.352104771435743</v>
+        <v>1.381711626623189</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.440403799565299</v>
       </c>
       <c r="E36" t="n">
-        <v>5.014308356707851</v>
+        <v>4.996662215481128</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.187503841603451</v>
+        <v>-4.148321991035826</v>
       </c>
       <c r="G36" t="n">
-        <v>1.265372074643402</v>
+        <v>1.296190769746303</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.339324241947466</v>
       </c>
       <c r="E37" t="n">
-        <v>4.648945922438857</v>
+        <v>4.624252129077319</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.105314814470019</v>
+        <v>-4.091910842971432</v>
       </c>
       <c r="G37" t="n">
-        <v>1.186019920950605</v>
+        <v>1.200284590798784</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.23773524213429</v>
       </c>
       <c r="E38" t="n">
-        <v>4.315111766644947</v>
+        <v>4.32657314415858</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.023671115298541</v>
+        <v>-3.990090009207641</v>
       </c>
       <c r="G38" t="n">
-        <v>1.148501065158525</v>
+        <v>1.167921164815701</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.134333163627646</v>
       </c>
       <c r="E39" t="n">
-        <v>3.972031126291312</v>
+        <v>3.950796186857136</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.884762139929487</v>
+        <v>-3.845445964937498</v>
       </c>
       <c r="G39" t="n">
-        <v>1.069075909061182</v>
+        <v>1.091205857975085</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.031033247542908</v>
       </c>
       <c r="E40" t="n">
-        <v>3.63862914473231</v>
+        <v>3.634205199016857</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.776483513459608</v>
+        <v>-3.749379180699978</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9788507772353884</v>
+        <v>1.006912901542654</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9269135014017373</v>
       </c>
       <c r="E41" t="n">
-        <v>3.407264084054554</v>
+        <v>3.412707143337462</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.743965322378889</v>
+        <v>-3.724893444191394</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9007396644198639</v>
+        <v>0.9204357131662223</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8254027682219497</v>
       </c>
       <c r="E42" t="n">
-        <v>3.094853213898547</v>
+        <v>3.089459796250731</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.686744577648086</v>
+        <v>-3.649746229000414</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8434692780539702</v>
+        <v>0.8667015632765094</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7264693115864639</v>
       </c>
       <c r="E43" t="n">
-        <v>2.913668546057233</v>
+        <v>2.933304732831864</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.616836015007287</v>
+        <v>-3.580369853888751</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8237922099327937</v>
+        <v>0.8434853385829701</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6325273859723419</v>
       </c>
       <c r="E44" t="n">
-        <v>2.671518110131934</v>
+        <v>2.696616336814655</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.5669600421978</v>
+        <v>-3.559289679552211</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7398847061963616</v>
+        <v>0.7564328912587208</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5445650163789982</v>
       </c>
       <c r="E45" t="n">
-        <v>2.47793179380644</v>
+        <v>2.499736151996071</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.464496057249964</v>
+        <v>-3.44561033519406</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6348984881714808</v>
+        <v>0.6570036162678384</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4623680455332695</v>
       </c>
       <c r="E46" t="n">
-        <v>2.257236764577045</v>
+        <v>2.285985111487038</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.380822891232123</v>
+        <v>-3.373143768297989</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6427447866120241</v>
+        <v>0.673017423728925</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3871288587699568</v>
       </c>
       <c r="E47" t="n">
-        <v>2.005118580335113</v>
+        <v>1.988328027289663</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.318137916521094</v>
+        <v>-3.321888780066639</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5448865233669594</v>
+        <v>0.5707060138065889</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.317188767714122</v>
       </c>
       <c r="E48" t="n">
-        <v>1.810105797024802</v>
+        <v>1.789120525814171</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.2305467114513</v>
+        <v>-3.225122632793574</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4350836066901708</v>
+        <v>0.4689611025435253</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2524432275300266</v>
       </c>
       <c r="E49" t="n">
-        <v>1.671608555217384</v>
+        <v>1.621182874301671</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.164372951827044</v>
+        <v>-3.157672061113819</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3741265988947326</v>
+        <v>0.3911887208850917</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1914085464339077</v>
       </c>
       <c r="E50" t="n">
-        <v>1.533460264903694</v>
+        <v>1.481802303399253</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.094151208870745</v>
+        <v>-3.102410700921016</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2918251480583001</v>
+        <v>0.2942999295723904</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1339583274201087</v>
       </c>
       <c r="E51" t="n">
-        <v>1.417856577161725</v>
+        <v>1.348187462407835</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.006207402186996</v>
+        <v>-3.011988462602949</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2512285108905838</v>
+        <v>0.2702032958800332</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.08018377774138764</v>
       </c>
       <c r="E52" t="n">
-        <v>1.250771593734315</v>
+        <v>1.188604206071514</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.890671606681254</v>
+        <v>-2.892679902830299</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2342642121223156</v>
+        <v>0.2325661761925888</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.02986191950101815</v>
       </c>
       <c r="E53" t="n">
-        <v>1.078610023094816</v>
+        <v>1.011580675289289</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.761267544384016</v>
+        <v>-2.788944215995282</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1528271097557011</v>
+        <v>0.147103721239339</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.01534027473977468</v>
       </c>
       <c r="E54" t="n">
-        <v>1.008425511364835</v>
+        <v>0.9835273112705689</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.713868543160757</v>
+        <v>-2.73163659840307</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1286253526007985</v>
+        <v>0.1091220302024401</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.05556131957556153</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8678097397775091</v>
+        <v>0.8039574566177989</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.739150005878886</v>
+        <v>-2.762628309204743</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09788111995053404</v>
+        <v>0.07733532321526683</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.09078205847825832</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7597355200403563</v>
+        <v>0.6731809491151068</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.645512741664638</v>
+        <v>-2.66436999278277</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08999540021153615</v>
+        <v>0.06436425597563394</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1208686138186735</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6758718177466516</v>
+        <v>0.5909203796252198</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.629755902667552</v>
+        <v>-2.651088665323819</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05262838942090983</v>
+        <v>0.0220593625415544</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1458667592092037</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6488112864297497</v>
+        <v>0.5632948096971363</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.655399457312227</v>
+        <v>-2.674285179368131</v>
       </c>
       <c r="G58" t="n">
-        <v>0.007806373078103682</v>
+        <v>-0.02805386808270487</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1658218012940304</v>
       </c>
       <c r="E59" t="n">
-        <v>0.622885212479484</v>
+        <v>0.5177383891646031</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.618639096503373</v>
+        <v>-2.644471727375821</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.003481258712711469</v>
+        <v>-0.05116788940988048</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1817337346189491</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5787391984027686</v>
+        <v>0.4964465078548815</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.613978622997192</v>
+        <v>-2.645093707862547</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.04367638265542795</v>
+        <v>-0.1088135081351377</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1938902243900096</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4458003596774406</v>
+        <v>0.3559840413171011</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.64218164194523</v>
+        <v>-2.693269454670171</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.07173120672223859</v>
+        <v>-0.1353542623316761</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2033367752452343</v>
       </c>
       <c r="E62" t="n">
-        <v>0.411460028579268</v>
+        <v>0.3219620007027466</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.664621851078452</v>
+        <v>-2.689438288479626</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1034624318819573</v>
+        <v>-0.1760239019039379</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2105097523117694</v>
       </c>
       <c r="E63" t="n">
-        <v>0.345607479535013</v>
+        <v>0.2488427923100389</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.744995308410839</v>
+        <v>-2.786350440561782</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1677016277857583</v>
+        <v>-0.2370407716711033</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2157857171699091</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3121095961852947</v>
+        <v>0.1919841395057815</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.755052849685064</v>
+        <v>-2.78281931425392</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1727095927375751</v>
+        <v>-0.2434314021650107</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2200542443316984</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2536478105772195</v>
+        <v>0.1318578990740704</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.754357866793791</v>
+        <v>-2.763954762895334</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2140785953453822</v>
+        <v>-0.280367698768819</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2243382608740967</v>
       </c>
       <c r="E66" t="n">
-        <v>0.209487196019595</v>
+        <v>0.08341496346581065</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.851069992287492</v>
+        <v>-2.862868640910126</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2227191599473799</v>
+        <v>-0.2844660537599997</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2298603879987561</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1906657160796909</v>
+        <v>0.04786717259645656</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.847849126198948</v>
+        <v>-2.862199208860444</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2257370793512881</v>
+        <v>-0.2917735944549977</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2372707808448371</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1745949667430589</v>
+        <v>0.02499405920428089</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.943800566637286</v>
+        <v>-2.958006104537782</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2929401728796338</v>
+        <v>-0.3661703449272504</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2465153568803278</v>
       </c>
       <c r="E69" t="n">
-        <v>0.125115396990254</v>
+        <v>-0.01672681499343518</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.949673610082966</v>
+        <v>-2.973327849203778</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2621185576805511</v>
+        <v>-0.3256248094427159</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.256471457684201</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04586836676000255</v>
+        <v>-0.1165868041711356</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.053422437350802</v>
+        <v>-3.086409303868702</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3170032254659</v>
+        <v>-0.3901589350608803</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2658047567540316</v>
       </c>
       <c r="E71" t="n">
-        <v>0.008781685202830692</v>
+        <v>-0.1538019699603075</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.142697807893459</v>
+        <v>-3.184325969037403</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3823651983516098</v>
+        <v>-0.4612515967034067</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2730038437622067</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00187273763665073</v>
+        <v>-0.1743068853490292</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.248970328286431</v>
+        <v>-3.307521176828052</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4090840784152389</v>
+        <v>-0.4826836426298555</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.276804752337747</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.03039432517243151</v>
+        <v>-0.1983728580314773</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.197285355892308</v>
+        <v>-3.245761142582614</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4372235852713223</v>
+        <v>-0.5193191693269366</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.276636588734673</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.05787681038760596</v>
+        <v>-0.2521464292196447</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.258309525899928</v>
+        <v>-3.315555821472322</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4884143313866722</v>
+        <v>-0.5739118274941037</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2724562906200007</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.01936074174943448</v>
+        <v>-0.2067929553717478</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.25932425932311</v>
+        <v>-3.327452293317046</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5424434109907486</v>
+        <v>-0.6096406643267305</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2644048118982781</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.05011081459206258</v>
+        <v>-0.2528370319666445</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.198013189865626</v>
+        <v>-3.24148977189266</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5537120621563819</v>
+        <v>-0.6322553492068154</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2532277913219113</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.01754152182816224</v>
+        <v>-0.2389300739007391</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.215728683376667</v>
+        <v>-3.244898984184932</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5539135487929273</v>
+        <v>-0.6025258499797325</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2399582510683877</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06657330873717882</v>
+        <v>-0.1296994960755867</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.153996390044957</v>
+        <v>-3.172763118181452</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5730197381105585</v>
+        <v>-0.6310303688585429</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2257231755146604</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1249664720849813</v>
+        <v>-0.0627183298570592</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.069745044983115</v>
+        <v>-3.097804979218244</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5489377048991104</v>
+        <v>-0.5905622159228265</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2123093389841074</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2227064714346823</v>
+        <v>0.02823098582182547</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.022911812395082</v>
+        <v>-3.030327396648808</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6047130020199136</v>
+        <v>-0.6352323872641782</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2016779125384818</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3105999064592951</v>
+        <v>0.1242247676547997</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.921452340533792</v>
+        <v>-2.915450812856111</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5423280671915668</v>
+        <v>-0.5654888100576515</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1954199104428239</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3944592286087271</v>
+        <v>0.2197892953490468</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.753434386376291</v>
+        <v>-2.758912486813381</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5447955484652025</v>
+        <v>-0.5642185682185609</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1943049773442033</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6917819617932837</v>
+        <v>0.5003681970270624</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.658307873109317</v>
+        <v>-2.673015667553086</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5091265736043029</v>
+        <v>-0.5419294740627487</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1984430826494616</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9498980235926688</v>
+        <v>0.76279432079081</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.46980179411614</v>
+        <v>-2.497852238038678</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5167173636289373</v>
+        <v>-0.5330845027280238</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.206921813781173</v>
       </c>
       <c r="E85" t="n">
-        <v>1.148117072510616</v>
+        <v>0.9723243622690265</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.248608888487745</v>
+        <v>-2.272192315276148</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5155099038577557</v>
+        <v>-0.529180334132934</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2187731863096037</v>
       </c>
       <c r="E86" t="n">
-        <v>1.462767656438077</v>
+        <v>1.298696212270303</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.142038518284228</v>
+        <v>-2.163173444424177</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4617523931985884</v>
+        <v>-0.4669910457487688</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2321804117278719</v>
       </c>
       <c r="E87" t="n">
-        <v>1.756494291174725</v>
+        <v>1.599023724425949</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.965152962046594</v>
+        <v>-1.999798443195766</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4207951241524176</v>
+        <v>-0.4410124100672304</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2467094727352452</v>
       </c>
       <c r="E88" t="n">
-        <v>1.969502167205486</v>
+        <v>1.79965915293435</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.731252527858975</v>
+        <v>-1.745060202654698</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4313395914649602</v>
+        <v>-0.4403860494362305</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2630869680332692</v>
       </c>
       <c r="E89" t="n">
-        <v>2.163976192770252</v>
+        <v>2.014268701720838</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.586516500559105</v>
+        <v>-1.600747589301192</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3531554762448903</v>
+        <v>-0.3458931970407104</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2807826325409685</v>
       </c>
       <c r="E90" t="n">
-        <v>2.278949139736949</v>
+        <v>2.143212848869439</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.398504647844701</v>
+        <v>-1.414508234969151</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3114900838746288</v>
+        <v>-0.3100694570821746</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3007832618705206</v>
       </c>
       <c r="E91" t="n">
-        <v>2.319793985080119</v>
+        <v>2.205997836874695</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.207613580295025</v>
+        <v>-1.219197601848294</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2843609302974542</v>
+        <v>-0.2950908237175422</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3232227996649552</v>
       </c>
       <c r="E92" t="n">
-        <v>2.215888202642511</v>
+        <v>2.124988528598717</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.058744156849792</v>
+        <v>-1.067295658518244</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2592670837590064</v>
+        <v>-0.2745756879921841</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3498335615606317</v>
       </c>
       <c r="E93" t="n">
-        <v>2.131963178328988</v>
+        <v>2.055205530093736</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8723514974682054</v>
+        <v>-0.8625560348262989</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2298733955928325</v>
+        <v>-0.2569105661402798</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3800431374496807</v>
       </c>
       <c r="E94" t="n">
-        <v>1.991446690011844</v>
+        <v>1.924224615858316</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8149132055718572</v>
+        <v>-0.8109550151974038</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1771014173950285</v>
+        <v>-0.2118564021510191</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4142184921511125</v>
       </c>
       <c r="E95" t="n">
-        <v>1.864756857115605</v>
+        <v>1.837167788389794</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.620604165441364</v>
+        <v>-0.6065526626144586</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1643581176575774</v>
+        <v>-0.180434707186573</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4490961409311842</v>
       </c>
       <c r="E96" t="n">
-        <v>1.703168954750467</v>
+        <v>1.685625016890108</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4856475402544002</v>
+        <v>-0.4516853616117729</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1314077523419498</v>
+        <v>-0.1512892271958536</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4807607583634003</v>
       </c>
       <c r="E97" t="n">
-        <v>1.562303514939595</v>
+        <v>1.541254001612965</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.3265358794514429</v>
+        <v>-0.29325554326727</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1172482059563173</v>
+        <v>-0.148532656400218</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.5050584069829442</v>
       </c>
       <c r="E98" t="n">
-        <v>1.420646729063452</v>
+        <v>1.389016247222006</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1844556796289356</v>
+        <v>-0.1558372769990342</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1421726869162197</v>
+        <v>-0.1469134630674002</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5206081825069815</v>
       </c>
       <c r="E99" t="n">
-        <v>1.287078609610942</v>
+        <v>1.258425165826859</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.04107165686124683</v>
+        <v>-0.001539394751802899</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1837971979399358</v>
+        <v>-0.2052248637221118</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5291835162522456</v>
       </c>
       <c r="E100" t="n">
-        <v>1.242017145381227</v>
+        <v>1.220728184167687</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05396871356836402</v>
+        <v>0.08742133542726412</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1980209864415683</v>
+        <v>-0.2190909404414718</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5336590013229257</v>
       </c>
       <c r="E101" t="n">
-        <v>1.15916233631834</v>
+        <v>1.118435754870533</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1004259837729879</v>
+        <v>0.1301832239137981</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.169913600643485</v>
+        <v>-0.1722657381179389</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5321422183377611</v>
       </c>
       <c r="E102" t="n">
-        <v>1.127361028850258</v>
+        <v>1.090861286625631</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1296459262163437</v>
+        <v>0.1387113648127958</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2390351973632846</v>
+        <v>-0.2547102736672804</v>
       </c>
     </row>
   </sheetData>
